--- a/matury/2019/zad5.xlsx
+++ b/matury/2019/zad5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\dev\other\informatyka-frycz\matury\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945F074D-5B59-4106-ADCE-C153344DD3D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ED0430-7F43-4533-97AC-2284D39892CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14820" yWindow="2325" windowWidth="20730" windowHeight="14910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2325" windowWidth="20730" windowHeight="14910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pogoda" sheetId="2" r:id="rId1"/>
@@ -19378,12 +19378,13 @@
   <dimension ref="A1:K501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J5" sqref="J5:J501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
   </cols>
@@ -19514,6 +19515,10 @@
       <c r="I5">
         <v>4</v>
       </c>
+      <c r="J5" t="str">
+        <f>IF(B5&lt;10, "C", "S")</f>
+        <v>S</v>
+      </c>
       <c r="K5">
         <f>IF(K4=0,1,IF(AND(K4=5,C4&gt;=20),0,IF(AND(K4=K3, K3=K2, K4&lt;5),K4+1,K4)))</f>
         <v>1</v>
@@ -19541,8 +19546,12 @@
       <c r="I6">
         <v>10</v>
       </c>
+      <c r="J6" t="str">
+        <f t="shared" ref="J6:J69" si="0">IF(B6&lt;10, "C", "S")</f>
+        <v>S</v>
+      </c>
       <c r="K6">
-        <f t="shared" ref="K6:K69" si="0">IF(K5=0,1,IF(AND(K5=5,C5&gt;=20),0,IF(AND(K5=K4, K4=K3, K5&lt;5),K5+1,K5)))</f>
+        <f t="shared" ref="K6:K69" si="1">IF(K5=0,1,IF(AND(K5=5,C5&gt;=20),0,IF(AND(K5=K4, K4=K3, K5&lt;5),K5+1,K5)))</f>
         <v>1</v>
       </c>
     </row>
@@ -19568,8 +19577,12 @@
       <c r="I7">
         <v>8</v>
       </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -19595,8 +19608,12 @@
       <c r="I8">
         <v>10</v>
       </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -19622,8 +19639,12 @@
       <c r="I9">
         <v>11</v>
       </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -19649,8 +19670,12 @@
       <c r="I10">
         <v>14</v>
       </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -19676,8 +19701,12 @@
       <c r="I11">
         <v>15</v>
       </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -19703,8 +19732,12 @@
       <c r="I12">
         <v>3</v>
       </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -19730,8 +19763,12 @@
       <c r="I13">
         <v>23</v>
       </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -19757,8 +19794,12 @@
       <c r="I14">
         <v>17</v>
       </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -19784,8 +19825,12 @@
       <c r="I15">
         <v>15</v>
       </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -19811,8 +19856,12 @@
       <c r="I16">
         <v>22</v>
       </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -19838,8 +19887,12 @@
       <c r="I17">
         <v>0</v>
       </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -19865,8 +19918,12 @@
       <c r="I18">
         <v>2</v>
       </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -19892,8 +19949,12 @@
       <c r="I19">
         <v>1</v>
       </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -19919,8 +19980,12 @@
       <c r="I20">
         <v>1</v>
       </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -19946,8 +20011,12 @@
       <c r="I21">
         <v>12</v>
       </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -19973,8 +20042,12 @@
       <c r="I22">
         <v>11</v>
       </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -20000,8 +20073,12 @@
       <c r="I23">
         <v>6</v>
       </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -20027,8 +20104,12 @@
       <c r="I24">
         <v>18</v>
       </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -20054,8 +20135,12 @@
       <c r="I25">
         <v>15</v>
       </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -20081,8 +20166,12 @@
       <c r="I26">
         <v>5</v>
       </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -20108,8 +20197,12 @@
       <c r="I27">
         <v>19</v>
       </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -20135,8 +20228,12 @@
       <c r="I28">
         <v>18</v>
       </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -20162,8 +20259,12 @@
       <c r="I29">
         <v>4</v>
       </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -20189,8 +20290,12 @@
       <c r="I30">
         <v>17</v>
       </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -20216,8 +20321,12 @@
       <c r="I31">
         <v>14</v>
       </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -20243,8 +20352,12 @@
       <c r="I32">
         <v>12</v>
       </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -20270,8 +20383,12 @@
       <c r="I33">
         <v>11</v>
       </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -20297,8 +20414,12 @@
       <c r="I34">
         <v>17</v>
       </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -20324,8 +20445,12 @@
       <c r="I35">
         <v>26</v>
       </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -20351,8 +20476,12 @@
       <c r="I36">
         <v>0</v>
       </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20378,8 +20507,12 @@
       <c r="I37">
         <v>3</v>
       </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -20405,8 +20538,12 @@
       <c r="I38">
         <v>3</v>
       </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="K38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -20432,8 +20569,12 @@
       <c r="I39">
         <v>5</v>
       </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="K39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -20459,8 +20600,12 @@
       <c r="I40">
         <v>11</v>
       </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -20486,8 +20631,12 @@
       <c r="I41">
         <v>6</v>
       </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="K41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -20513,8 +20662,12 @@
       <c r="I42">
         <v>3</v>
       </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="K42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -20540,8 +20693,12 @@
       <c r="I43">
         <v>17</v>
       </c>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="K43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -20567,8 +20724,12 @@
       <c r="I44">
         <v>5</v>
       </c>
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="K44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -20594,8 +20755,12 @@
       <c r="I45">
         <v>8</v>
       </c>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="K45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -20621,8 +20786,12 @@
       <c r="I46">
         <v>2</v>
       </c>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -20648,8 +20817,12 @@
       <c r="I47">
         <v>1</v>
       </c>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -20675,8 +20848,12 @@
       <c r="I48">
         <v>11</v>
       </c>
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -20702,8 +20879,12 @@
       <c r="I49">
         <v>25</v>
       </c>
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -20729,8 +20910,12 @@
       <c r="I50">
         <v>0</v>
       </c>
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20756,8 +20941,12 @@
       <c r="I51">
         <v>2</v>
       </c>
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -20783,8 +20972,12 @@
       <c r="I52">
         <v>3</v>
       </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -20810,8 +21003,12 @@
       <c r="I53">
         <v>2</v>
       </c>
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -20837,8 +21034,12 @@
       <c r="I54">
         <v>4</v>
       </c>
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -20864,8 +21065,12 @@
       <c r="I55">
         <v>5</v>
       </c>
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -20891,8 +21096,12 @@
       <c r="I56">
         <v>9</v>
       </c>
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -20918,8 +21127,12 @@
       <c r="I57">
         <v>2</v>
       </c>
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -20945,8 +21158,12 @@
       <c r="I58">
         <v>16</v>
       </c>
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -20972,8 +21189,12 @@
       <c r="I59">
         <v>14</v>
       </c>
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -20999,8 +21220,12 @@
       <c r="I60">
         <v>14</v>
       </c>
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -21026,8 +21251,12 @@
       <c r="I61">
         <v>6</v>
       </c>
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -21053,8 +21282,12 @@
       <c r="I62">
         <v>21</v>
       </c>
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -21080,8 +21313,12 @@
       <c r="I63">
         <v>21</v>
       </c>
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -21107,8 +21344,12 @@
       <c r="I64">
         <v>0</v>
       </c>
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21134,8 +21375,12 @@
       <c r="I65">
         <v>4</v>
       </c>
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -21161,8 +21406,12 @@
       <c r="I66">
         <v>6</v>
       </c>
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -21188,8 +21437,12 @@
       <c r="I67">
         <v>3</v>
       </c>
+      <c r="J67" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -21215,8 +21468,12 @@
       <c r="I68">
         <v>7</v>
       </c>
+      <c r="J68" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -21242,8 +21499,12 @@
       <c r="I69">
         <v>6</v>
       </c>
+      <c r="J69" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
       <c r="K69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -21269,8 +21530,12 @@
       <c r="I70">
         <v>8</v>
       </c>
+      <c r="J70" t="str">
+        <f t="shared" ref="J70:J133" si="2">IF(B70&lt;10, "C", "S")</f>
+        <v>S</v>
+      </c>
       <c r="K70">
-        <f t="shared" ref="K70:K86" si="1">IF(K69=0,1,IF(AND(K69=5,C69&gt;=20),0,IF(AND(K69=K68, K68=K67, K69&lt;5),K69+1,K69)))</f>
+        <f t="shared" ref="K70:K86" si="3">IF(K69=0,1,IF(AND(K69=5,C69&gt;=20),0,IF(AND(K69=K68, K68=K67, K69&lt;5),K69+1,K69)))</f>
         <v>2</v>
       </c>
     </row>
@@ -21296,8 +21561,12 @@
       <c r="I71">
         <v>3</v>
       </c>
+      <c r="J71" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="K71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -21323,8 +21592,12 @@
       <c r="I72">
         <v>16</v>
       </c>
+      <c r="J72" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="K72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -21350,8 +21623,12 @@
       <c r="I73">
         <v>8</v>
       </c>
+      <c r="J73" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="K73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -21377,8 +21654,12 @@
       <c r="I74">
         <v>19</v>
       </c>
+      <c r="J74" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="K74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -21404,8 +21685,12 @@
       <c r="I75">
         <v>5</v>
       </c>
+      <c r="J75" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="K75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -21431,8 +21716,12 @@
       <c r="I76">
         <v>2</v>
       </c>
+      <c r="J76" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="K76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -21458,8 +21747,12 @@
       <c r="I77">
         <v>22</v>
       </c>
+      <c r="J77" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="K77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -21485,8 +21778,12 @@
       <c r="I78">
         <v>0</v>
       </c>
+      <c r="J78" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="K78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21512,8 +21809,12 @@
       <c r="I79">
         <v>2</v>
       </c>
+      <c r="J79" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="K79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -21539,8 +21840,12 @@
       <c r="I80">
         <v>4</v>
       </c>
+      <c r="J80" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="K80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -21566,8 +21871,12 @@
       <c r="I81">
         <v>5</v>
       </c>
+      <c r="J81" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="K81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -21593,8 +21902,12 @@
       <c r="I82">
         <v>8</v>
       </c>
+      <c r="J82" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="K82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -21620,8 +21933,12 @@
       <c r="I83">
         <v>6</v>
       </c>
+      <c r="J83" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
       <c r="K83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -21647,8 +21964,12 @@
       <c r="I84">
         <v>3</v>
       </c>
+      <c r="J84" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
       <c r="K84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -21674,8 +21995,12 @@
       <c r="I85">
         <v>1</v>
       </c>
+      <c r="J85" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
       <c r="K85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -21701,8 +22026,12 @@
       <c r="I86">
         <v>5</v>
       </c>
+      <c r="J86" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
       <c r="K86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -21728,6 +22057,10 @@
       <c r="I87">
         <v>13</v>
       </c>
+      <c r="J87" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -21751,6 +22084,10 @@
       <c r="I88">
         <v>4</v>
       </c>
+      <c r="J88" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -21774,6 +22111,10 @@
       <c r="I89">
         <v>9</v>
       </c>
+      <c r="J89" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -21797,6 +22138,10 @@
       <c r="I90">
         <v>24</v>
       </c>
+      <c r="J90" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -21820,6 +22165,10 @@
       <c r="I91">
         <v>15</v>
       </c>
+      <c r="J91" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -21843,6 +22192,10 @@
       <c r="I92">
         <v>29</v>
       </c>
+      <c r="J92" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
@@ -21866,6 +22219,10 @@
       <c r="I93">
         <v>0</v>
       </c>
+      <c r="J93" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
@@ -21889,6 +22246,10 @@
       <c r="I94">
         <v>1</v>
       </c>
+      <c r="J94" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -21912,6 +22273,10 @@
       <c r="I95">
         <v>3</v>
       </c>
+      <c r="J95" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -21935,8 +22300,12 @@
       <c r="I96">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -21958,8 +22327,12 @@
       <c r="I97">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -21981,8 +22354,12 @@
       <c r="I98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -22004,8 +22381,12 @@
       <c r="I99">
         <v>11</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -22027,8 +22408,12 @@
       <c r="I100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -22050,8 +22435,12 @@
       <c r="I101">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -22073,8 +22462,12 @@
       <c r="I102">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -22096,8 +22489,12 @@
       <c r="I103">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -22119,8 +22516,12 @@
       <c r="I104">
         <v>17</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -22142,8 +22543,12 @@
       <c r="I105">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -22165,8 +22570,12 @@
       <c r="I106">
         <v>27</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -22188,8 +22597,12 @@
       <c r="I107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -22211,8 +22624,12 @@
       <c r="I108">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -22234,8 +22651,12 @@
       <c r="I109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -22257,8 +22678,12 @@
       <c r="I110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -22280,8 +22705,12 @@
       <c r="I111">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -22303,8 +22732,12 @@
       <c r="I112">
         <v>12</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -22326,8 +22759,12 @@
       <c r="I113">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -22349,8 +22786,12 @@
       <c r="I114">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -22372,8 +22813,12 @@
       <c r="I115">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -22395,8 +22840,12 @@
       <c r="I116">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -22418,8 +22867,12 @@
       <c r="I117">
         <v>23</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -22441,8 +22894,12 @@
       <c r="I118">
         <v>16</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -22464,8 +22921,12 @@
       <c r="I119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -22487,8 +22948,12 @@
       <c r="I120">
         <v>27</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -22510,8 +22975,12 @@
       <c r="I121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -22533,8 +23002,12 @@
       <c r="I122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -22556,8 +23029,12 @@
       <c r="I123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -22579,8 +23056,12 @@
       <c r="I124">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -22602,8 +23083,12 @@
       <c r="I125">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -22625,8 +23110,12 @@
       <c r="I126">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -22648,8 +23137,12 @@
       <c r="I127">
         <v>12</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -22671,8 +23164,12 @@
       <c r="I128">
         <v>15</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -22694,8 +23191,12 @@
       <c r="I129">
         <v>10</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -22717,8 +23218,12 @@
       <c r="I130">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -22740,8 +23245,12 @@
       <c r="I131">
         <v>23</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -22763,8 +23272,12 @@
       <c r="I132">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -22786,8 +23299,12 @@
       <c r="I133">
         <v>23</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -22809,8 +23326,12 @@
       <c r="I134">
         <v>16</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" t="str">
+        <f t="shared" ref="J134:J197" si="4">IF(B134&lt;10, "C", "S")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -22832,8 +23353,12 @@
       <c r="I135">
         <v>21</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -22855,8 +23380,12 @@
       <c r="I136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -22878,8 +23407,12 @@
       <c r="I137">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -22901,8 +23434,12 @@
       <c r="I138">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -22924,8 +23461,12 @@
       <c r="I139">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -22947,8 +23488,12 @@
       <c r="I140">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -22970,8 +23515,12 @@
       <c r="I141">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -22993,8 +23542,12 @@
       <c r="I142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -23016,8 +23569,12 @@
       <c r="I143">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -23039,8 +23596,12 @@
       <c r="I144">
         <v>13</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -23062,8 +23623,12 @@
       <c r="I145">
         <v>12</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -23085,8 +23650,12 @@
       <c r="I146">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -23108,8 +23677,12 @@
       <c r="I147">
         <v>21</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -23131,8 +23704,12 @@
       <c r="I148">
         <v>14</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -23154,8 +23731,12 @@
       <c r="I149">
         <v>11</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -23177,8 +23758,12 @@
       <c r="I150">
         <v>20</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -23200,8 +23785,12 @@
       <c r="I151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -23223,8 +23812,12 @@
       <c r="I152">
         <v>6</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -23246,8 +23839,12 @@
       <c r="I153">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -23269,8 +23866,12 @@
       <c r="I154">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -23292,8 +23893,12 @@
       <c r="I155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -23315,8 +23920,12 @@
       <c r="I156">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -23338,8 +23947,12 @@
       <c r="I157">
         <v>11</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -23361,8 +23974,12 @@
       <c r="I158">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -23384,8 +24001,12 @@
       <c r="I159">
         <v>18</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -23407,8 +24028,12 @@
       <c r="I160">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -23430,8 +24055,12 @@
       <c r="I161">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -23453,8 +24082,12 @@
       <c r="I162">
         <v>22</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -23476,8 +24109,12 @@
       <c r="I163">
         <v>19</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -23499,8 +24136,12 @@
       <c r="I164">
         <v>23</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -23522,8 +24163,12 @@
       <c r="I165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -23545,8 +24190,12 @@
       <c r="I166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -23568,8 +24217,12 @@
       <c r="I167">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -23591,8 +24244,12 @@
       <c r="I168">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -23614,8 +24271,12 @@
       <c r="I169">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -23637,8 +24298,12 @@
       <c r="I170">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -23660,8 +24325,12 @@
       <c r="I171">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -23683,8 +24352,12 @@
       <c r="I172">
         <v>6</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -23706,8 +24379,12 @@
       <c r="I173">
         <v>18</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -23729,8 +24406,12 @@
       <c r="I174">
         <v>6</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -23752,8 +24433,12 @@
       <c r="I175">
         <v>20</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -23775,8 +24460,12 @@
       <c r="I176">
         <v>14</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -23798,8 +24487,12 @@
       <c r="I177">
         <v>22</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -23821,8 +24514,12 @@
       <c r="I178">
         <v>23</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -23844,8 +24541,12 @@
       <c r="I179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -23867,8 +24568,12 @@
       <c r="I180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -23890,8 +24595,12 @@
       <c r="I181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -23913,8 +24622,12 @@
       <c r="I182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -23936,8 +24649,12 @@
       <c r="I183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -23959,8 +24676,12 @@
       <c r="I184">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -23982,8 +24703,12 @@
       <c r="I185">
         <v>9</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -24005,8 +24730,12 @@
       <c r="I186">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -24028,8 +24757,12 @@
       <c r="I187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -24051,8 +24784,12 @@
       <c r="I188">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -24074,8 +24811,12 @@
       <c r="I189">
         <v>7</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -24097,8 +24838,12 @@
       <c r="I190">
         <v>6</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -24120,8 +24865,12 @@
       <c r="I191">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" t="str">
+        <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -24143,8 +24892,12 @@
       <c r="I192">
         <v>22</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -24166,8 +24919,12 @@
       <c r="I193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -24189,8 +24946,12 @@
       <c r="I194">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -24212,8 +24973,12 @@
       <c r="I195">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -24235,8 +25000,12 @@
       <c r="I196">
         <v>6</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -24258,8 +25027,12 @@
       <c r="I197">
         <v>8</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -24281,8 +25054,12 @@
       <c r="I198">
         <v>12</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" t="str">
+        <f t="shared" ref="J198:J261" si="5">IF(B198&lt;10, "C", "S")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -24304,8 +25081,12 @@
       <c r="I199">
         <v>9</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -24327,8 +25108,12 @@
       <c r="I200">
         <v>14</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -24350,8 +25135,12 @@
       <c r="I201">
         <v>12</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -24373,8 +25162,12 @@
       <c r="I202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -24396,8 +25189,12 @@
       <c r="I203">
         <v>11</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -24419,8 +25216,12 @@
       <c r="I204">
         <v>6</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -24442,8 +25243,12 @@
       <c r="I205">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -24465,8 +25270,12 @@
       <c r="I206">
         <v>15</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -24488,8 +25297,12 @@
       <c r="I207">
         <v>16</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -24511,8 +25324,12 @@
       <c r="I208">
         <v>17</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -24534,8 +25351,12 @@
       <c r="I209">
         <v>18</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -24557,8 +25378,12 @@
       <c r="I210">
         <v>13</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -24580,8 +25405,12 @@
       <c r="I211">
         <v>27</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -24603,8 +25432,12 @@
       <c r="I212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -24626,8 +25459,12 @@
       <c r="I213">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -24649,8 +25486,12 @@
       <c r="I214">
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -24672,8 +25513,12 @@
       <c r="I215">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -24695,8 +25540,12 @@
       <c r="I216">
         <v>11</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -24718,8 +25567,12 @@
       <c r="I217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -24741,8 +25594,12 @@
       <c r="I218">
         <v>7</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -24764,8 +25621,12 @@
       <c r="I219">
         <v>10</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -24787,8 +25648,12 @@
       <c r="I220">
         <v>10</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -24810,8 +25675,12 @@
       <c r="I221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -24833,8 +25702,12 @@
       <c r="I222">
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -24856,8 +25729,12 @@
       <c r="I223">
         <v>12</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -24879,8 +25756,12 @@
       <c r="I224">
         <v>7</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J224" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -24902,8 +25783,12 @@
       <c r="I225">
         <v>16</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J225" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -24925,8 +25810,12 @@
       <c r="I226">
         <v>24</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J226" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -24948,8 +25837,12 @@
       <c r="I227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J227" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -24971,8 +25864,12 @@
       <c r="I228">
         <v>5</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J228" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -24994,8 +25891,12 @@
       <c r="I229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J229" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -25017,8 +25918,12 @@
       <c r="I230">
         <v>6</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J230" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -25040,8 +25945,12 @@
       <c r="I231">
         <v>12</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J231" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -25063,8 +25972,12 @@
       <c r="I232">
         <v>3</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J232" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -25086,8 +25999,12 @@
       <c r="I233">
         <v>12</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J233" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -25109,8 +26026,12 @@
       <c r="I234">
         <v>17</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J234" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -25132,8 +26053,12 @@
       <c r="I235">
         <v>16</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J235" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -25155,8 +26080,12 @@
       <c r="I236">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J236" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -25178,8 +26107,12 @@
       <c r="I237">
         <v>21</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J237" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -25201,8 +26134,12 @@
       <c r="I238">
         <v>18</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J238" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -25224,8 +26161,12 @@
       <c r="I239">
         <v>13</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J239" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -25247,8 +26188,12 @@
       <c r="I240">
         <v>29</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J240" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -25270,8 +26215,12 @@
       <c r="I241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J241" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -25293,8 +26242,12 @@
       <c r="I242">
         <v>6</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J242" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -25316,8 +26269,12 @@
       <c r="I243">
         <v>5</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J243" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -25339,8 +26296,12 @@
       <c r="I244">
         <v>2</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J244" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -25362,8 +26323,12 @@
       <c r="I245">
         <v>8</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J245" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -25385,8 +26350,12 @@
       <c r="I246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J246" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -25408,8 +26377,12 @@
       <c r="I247">
         <v>11</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J247" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -25431,8 +26404,12 @@
       <c r="I248">
         <v>13</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J248" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -25454,8 +26431,12 @@
       <c r="I249">
         <v>18</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J249" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -25477,8 +26458,12 @@
       <c r="I250">
         <v>15</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J250" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -25500,8 +26485,12 @@
       <c r="I251">
         <v>12</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J251" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -25523,8 +26512,12 @@
       <c r="I252">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J252" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -25546,8 +26539,12 @@
       <c r="I253">
         <v>21</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J253" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -25569,8 +26566,12 @@
       <c r="I254">
         <v>28</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J254" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -25592,8 +26593,12 @@
       <c r="I255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J255" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -25615,8 +26620,12 @@
       <c r="I256">
         <v>3</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J256" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -25638,8 +26647,12 @@
       <c r="I257">
         <v>5</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J257" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -25661,8 +26674,12 @@
       <c r="I258">
         <v>5</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J258" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -25684,8 +26701,12 @@
       <c r="I259">
         <v>7</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J259" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -25707,8 +26728,12 @@
       <c r="I260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J260" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -25730,8 +26755,12 @@
       <c r="I261">
         <v>6</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J261" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -25753,8 +26782,12 @@
       <c r="I262">
         <v>6</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J262" t="str">
+        <f t="shared" ref="J262:J325" si="6">IF(B262&lt;10, "C", "S")</f>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -25776,8 +26809,12 @@
       <c r="I263">
         <v>10</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J263" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -25799,8 +26836,12 @@
       <c r="I264">
         <v>16</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J264" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -25822,8 +26863,12 @@
       <c r="I265">
         <v>9</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J265" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -25845,8 +26890,12 @@
       <c r="I266">
         <v>18</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J266" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -25868,8 +26917,12 @@
       <c r="I267">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J267" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -25891,8 +26944,12 @@
       <c r="I268">
         <v>22</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J268" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -25914,8 +26971,12 @@
       <c r="I269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J269" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -25937,8 +26998,12 @@
       <c r="I270">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J270" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -25960,8 +27025,12 @@
       <c r="I271">
         <v>6</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J271" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -25983,8 +27052,12 @@
       <c r="I272">
         <v>6</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J272" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -26006,8 +27079,12 @@
       <c r="I273">
         <v>9</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J273" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -26029,8 +27106,12 @@
       <c r="I274">
         <v>7</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J274" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -26052,8 +27133,12 @@
       <c r="I275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J275" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -26075,8 +27160,12 @@
       <c r="I276">
         <v>18</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J276" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -26098,8 +27187,12 @@
       <c r="I277">
         <v>13</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J277" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -26121,8 +27214,12 @@
       <c r="I278">
         <v>2</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J278" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -26144,8 +27241,12 @@
       <c r="I279">
         <v>10</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J279" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -26167,8 +27268,12 @@
       <c r="I280">
         <v>6</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J280" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -26190,8 +27295,12 @@
       <c r="I281">
         <v>20</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J281" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -26213,8 +27322,12 @@
       <c r="I282">
         <v>17</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J282" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -26236,8 +27349,12 @@
       <c r="I283">
         <v>13</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J283" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -26259,8 +27376,12 @@
       <c r="I284">
         <v>18</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J284" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -26282,8 +27403,12 @@
       <c r="I285">
         <v>20</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J285" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -26305,8 +27430,12 @@
       <c r="I286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J286" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -26328,8 +27457,12 @@
       <c r="I287">
         <v>6</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J287" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -26351,8 +27484,12 @@
       <c r="I288">
         <v>5</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J288" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -26374,8 +27511,12 @@
       <c r="I289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J289" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -26397,8 +27538,12 @@
       <c r="I290">
         <v>8</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J290" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -26420,8 +27565,12 @@
       <c r="I291">
         <v>3</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J291" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -26443,8 +27592,12 @@
       <c r="I292">
         <v>5</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J292" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -26466,8 +27619,12 @@
       <c r="I293">
         <v>17</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J293" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -26489,8 +27646,12 @@
       <c r="I294">
         <v>9</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J294" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -26512,8 +27673,12 @@
       <c r="I295">
         <v>4</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J295" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -26535,8 +27700,12 @@
       <c r="I296">
         <v>24</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J296" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -26558,8 +27727,12 @@
       <c r="I297">
         <v>21</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J297" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -26581,8 +27754,12 @@
       <c r="I298">
         <v>8</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J298" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -26604,8 +27781,12 @@
       <c r="I299">
         <v>23</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J299" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -26627,8 +27808,12 @@
       <c r="I300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J300" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -26650,8 +27835,12 @@
       <c r="I301">
         <v>5</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J301" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -26673,8 +27862,12 @@
       <c r="I302">
         <v>4</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J302" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -26696,8 +27889,12 @@
       <c r="I303">
         <v>5</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J303" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -26719,8 +27916,12 @@
       <c r="I304">
         <v>2</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J304" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -26742,8 +27943,12 @@
       <c r="I305">
         <v>7</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J305" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -26765,8 +27970,12 @@
       <c r="I306">
         <v>4</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J306" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -26788,8 +27997,12 @@
       <c r="I307">
         <v>17</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J307" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -26811,8 +28024,12 @@
       <c r="I308">
         <v>14</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J308" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -26834,8 +28051,12 @@
       <c r="I309">
         <v>9</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J309" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -26857,8 +28078,12 @@
       <c r="I310">
         <v>6</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J310" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -26880,8 +28105,12 @@
       <c r="I311">
         <v>16</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J311" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -26903,8 +28132,12 @@
       <c r="I312">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J312" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -26926,8 +28159,12 @@
       <c r="I313">
         <v>25</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J313" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -26949,8 +28186,12 @@
       <c r="I314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J314" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -26972,8 +28213,12 @@
       <c r="I315">
         <v>3</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J315" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -26995,8 +28240,12 @@
       <c r="I316">
         <v>4</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J316" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -27018,8 +28267,12 @@
       <c r="I317">
         <v>6</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J317" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -27041,8 +28294,12 @@
       <c r="I318">
         <v>6</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J318" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -27064,8 +28321,12 @@
       <c r="I319">
         <v>5</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J319" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -27087,8 +28348,12 @@
       <c r="I320">
         <v>4</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J320" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -27110,8 +28375,12 @@
       <c r="I321">
         <v>7</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J321" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -27133,8 +28402,12 @@
       <c r="I322">
         <v>12</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J322" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -27156,8 +28429,12 @@
       <c r="I323">
         <v>5</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J323" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -27179,8 +28456,12 @@
       <c r="I324">
         <v>3</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J324" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -27202,8 +28483,12 @@
       <c r="I325">
         <v>21</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J325" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -27225,8 +28510,12 @@
       <c r="I326">
         <v>18</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J326" t="str">
+        <f t="shared" ref="J326:J389" si="7">IF(B326&lt;10, "C", "S")</f>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -27248,8 +28537,12 @@
       <c r="I327">
         <v>13</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J327" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -27271,8 +28564,12 @@
       <c r="I328">
         <v>28</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J328" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -27294,8 +28591,12 @@
       <c r="I329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J329" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -27317,8 +28618,12 @@
       <c r="I330">
         <v>2</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J330" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -27340,8 +28645,12 @@
       <c r="I331">
         <v>2</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J331" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -27363,8 +28672,12 @@
       <c r="I332">
         <v>6</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J332" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -27386,8 +28699,12 @@
       <c r="I333">
         <v>11</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J333" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -27409,8 +28726,12 @@
       <c r="I334">
         <v>9</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J334" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -27432,8 +28753,12 @@
       <c r="I335">
         <v>7</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J335" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -27455,8 +28780,12 @@
       <c r="I336">
         <v>17</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J336" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -27478,8 +28807,12 @@
       <c r="I337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J337" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -27501,8 +28834,12 @@
       <c r="I338">
         <v>2</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J338" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -27524,8 +28861,12 @@
       <c r="I339">
         <v>15</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J339" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -27547,8 +28888,12 @@
       <c r="I340">
         <v>21</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J340" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -27570,8 +28915,12 @@
       <c r="I341">
         <v>8</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J341" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -27593,8 +28942,12 @@
       <c r="I342">
         <v>27</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J342" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -27616,8 +28969,12 @@
       <c r="I343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J343" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -27639,8 +28996,12 @@
       <c r="I344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J344" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -27662,8 +29023,12 @@
       <c r="I345">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J345" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -27685,8 +29050,12 @@
       <c r="I346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J346" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -27708,8 +29077,12 @@
       <c r="I347">
         <v>2</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J347" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -27731,8 +29104,12 @@
       <c r="I348">
         <v>3</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J348" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -27754,8 +29131,12 @@
       <c r="I349">
         <v>8</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J349" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -27777,8 +29158,12 @@
       <c r="I350">
         <v>18</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J350" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -27800,8 +29185,12 @@
       <c r="I351">
         <v>15</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J351" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -27823,8 +29212,12 @@
       <c r="I352">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J352" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -27846,8 +29239,12 @@
       <c r="I353">
         <v>22</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J353" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -27869,8 +29266,12 @@
       <c r="I354">
         <v>4</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J354" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -27892,8 +29293,12 @@
       <c r="I355">
         <v>4</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J355" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -27915,8 +29320,12 @@
       <c r="I356">
         <v>11</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J356" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -27938,8 +29347,12 @@
       <c r="I357">
         <v>25</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J357" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -27961,8 +29374,12 @@
       <c r="I358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J358" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -27984,8 +29401,12 @@
       <c r="I359">
         <v>4</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J359" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -28007,8 +29428,12 @@
       <c r="I360">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J360" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -28030,8 +29455,12 @@
       <c r="I361">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J361" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -28053,8 +29482,12 @@
       <c r="I362">
         <v>11</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J362" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -28076,8 +29509,12 @@
       <c r="I363">
         <v>12</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J363" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -28099,8 +29536,12 @@
       <c r="I364">
         <v>2</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J364" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -28122,8 +29563,12 @@
       <c r="I365">
         <v>4</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J365" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -28145,8 +29590,12 @@
       <c r="I366">
         <v>18</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J366" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -28168,8 +29617,12 @@
       <c r="I367">
         <v>2</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J367" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -28191,8 +29644,12 @@
       <c r="I368">
         <v>19</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J368" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -28214,8 +29671,12 @@
       <c r="I369">
         <v>16</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J369" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -28237,8 +29698,12 @@
       <c r="I370">
         <v>24</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J370" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -28260,8 +29725,12 @@
       <c r="I371">
         <v>24</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J371" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -28283,8 +29752,12 @@
       <c r="I372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J372" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -28306,8 +29779,12 @@
       <c r="I373">
         <v>3</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J373" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -28329,8 +29806,12 @@
       <c r="I374">
         <v>6</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J374" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -28352,8 +29833,12 @@
       <c r="I375">
         <v>6</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J375" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -28375,8 +29860,12 @@
       <c r="I376">
         <v>8</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J376" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -28398,8 +29887,12 @@
       <c r="I377">
         <v>3</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J377" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -28421,8 +29914,12 @@
       <c r="I378">
         <v>6</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J378" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -28444,8 +29941,12 @@
       <c r="I379">
         <v>7</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J379" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -28467,8 +29968,12 @@
       <c r="I380">
         <v>11</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J380" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -28490,8 +29995,12 @@
       <c r="I381">
         <v>10</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J381" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -28513,8 +30022,12 @@
       <c r="I382">
         <v>21</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J382" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -28536,8 +30049,12 @@
       <c r="I383">
         <v>22</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J383" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -28559,8 +30076,12 @@
       <c r="I384">
         <v>22</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J384" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -28582,8 +30103,12 @@
       <c r="I385">
         <v>29</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J385" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -28605,8 +30130,12 @@
       <c r="I386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J386" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -28628,8 +30157,12 @@
       <c r="I387">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J387" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -28651,8 +30184,12 @@
       <c r="I388">
         <v>2</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J388" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -28674,8 +30211,12 @@
       <c r="I389">
         <v>3</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J389" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -28697,8 +30238,12 @@
       <c r="I390">
         <v>2</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J390" t="str">
+        <f t="shared" ref="J390:J453" si="8">IF(B390&lt;10, "C", "S")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -28720,8 +30265,12 @@
       <c r="I391">
         <v>10</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J391" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -28743,8 +30292,12 @@
       <c r="I392">
         <v>3</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J392" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -28766,8 +30319,12 @@
       <c r="I393">
         <v>11</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J393" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -28789,8 +30346,12 @@
       <c r="I394">
         <v>17</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J394" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -28812,8 +30373,12 @@
       <c r="I395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J395" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -28835,8 +30400,12 @@
       <c r="I396">
         <v>8</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J396" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -28858,8 +30427,12 @@
       <c r="I397">
         <v>11</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J397" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -28881,8 +30454,12 @@
       <c r="I398">
         <v>23</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J398" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -28904,8 +30481,12 @@
       <c r="I399">
         <v>29</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J399" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -28927,8 +30508,12 @@
       <c r="I400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J400" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -28950,8 +30535,12 @@
       <c r="I401">
         <v>5</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J401" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -28973,8 +30562,12 @@
       <c r="I402">
         <v>2</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J402" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -28996,8 +30589,12 @@
       <c r="I403">
         <v>2</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J403" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -29019,8 +30616,12 @@
       <c r="I404">
         <v>7</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J404" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -29042,8 +30643,12 @@
       <c r="I405">
         <v>2</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J405" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -29065,8 +30670,12 @@
       <c r="I406">
         <v>3</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J406" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -29088,8 +30697,12 @@
       <c r="I407">
         <v>14</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J407" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -29111,8 +30724,12 @@
       <c r="I408">
         <v>12</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J408" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -29134,8 +30751,12 @@
       <c r="I409">
         <v>9</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J409" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -29157,8 +30778,12 @@
       <c r="I410">
         <v>14</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J410" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -29180,8 +30805,12 @@
       <c r="I411">
         <v>17</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J411" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -29203,8 +30832,12 @@
       <c r="I412">
         <v>9</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J412" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -29226,8 +30859,12 @@
       <c r="I413">
         <v>28</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J413" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -29249,8 +30886,12 @@
       <c r="I414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J414" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -29272,8 +30913,12 @@
       <c r="I415">
         <v>1</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J415" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -29295,8 +30940,12 @@
       <c r="I416">
         <v>6</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J416" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -29318,8 +30967,12 @@
       <c r="I417">
         <v>4</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J417" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -29341,8 +30994,12 @@
       <c r="I418">
         <v>10</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J418" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -29364,8 +31021,12 @@
       <c r="I419">
         <v>4</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J419" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -29387,8 +31048,12 @@
       <c r="I420">
         <v>5</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J420" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -29410,8 +31075,12 @@
       <c r="I421">
         <v>8</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J421" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -29433,8 +31102,12 @@
       <c r="I422">
         <v>12</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J422" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -29456,8 +31129,12 @@
       <c r="I423">
         <v>8</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J423" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -29479,8 +31156,12 @@
       <c r="I424">
         <v>7</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J424" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -29502,8 +31183,12 @@
       <c r="I425">
         <v>8</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J425" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -29525,8 +31210,12 @@
       <c r="I426">
         <v>7</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J426" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -29548,8 +31237,12 @@
       <c r="I427">
         <v>23</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J427" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -29571,8 +31264,12 @@
       <c r="I428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J428" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -29594,8 +31291,12 @@
       <c r="I429">
         <v>2</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J429" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -29617,8 +31318,12 @@
       <c r="I430">
         <v>5</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J430" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -29640,8 +31345,12 @@
       <c r="I431">
         <v>5</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J431" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -29663,8 +31372,12 @@
       <c r="I432">
         <v>8</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J432" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -29686,8 +31399,12 @@
       <c r="I433">
         <v>6</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J433" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -29709,8 +31426,12 @@
       <c r="I434">
         <v>9</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J434" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -29732,8 +31453,12 @@
       <c r="I435">
         <v>17</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J435" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -29755,8 +31480,12 @@
       <c r="I436">
         <v>17</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J436" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -29778,8 +31507,12 @@
       <c r="I437">
         <v>7</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J437" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -29801,8 +31534,12 @@
       <c r="I438">
         <v>24</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J438" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -29824,8 +31561,12 @@
       <c r="I439">
         <v>16</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J439" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -29847,8 +31588,12 @@
       <c r="I440">
         <v>2</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J440" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -29870,8 +31615,12 @@
       <c r="I441">
         <v>17</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J441" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -29893,8 +31642,12 @@
       <c r="I442">
         <v>23</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J442" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -29916,8 +31669,12 @@
       <c r="I443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J443" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -29939,8 +31696,12 @@
       <c r="I444">
         <v>4</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J444" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -29962,8 +31723,12 @@
       <c r="I445">
         <v>1</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J445" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -29985,8 +31750,12 @@
       <c r="I446">
         <v>1</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J446" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -30008,8 +31777,12 @@
       <c r="I447">
         <v>6</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J447" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="5">
         <v>447</v>
       </c>
@@ -30031,8 +31804,12 @@
       <c r="I448" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J448" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
         <v>448</v>
       </c>
@@ -30054,8 +31831,12 @@
       <c r="I449" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J449" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -30077,8 +31858,12 @@
       <c r="I450">
         <v>2</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J450" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -30100,8 +31885,12 @@
       <c r="I451">
         <v>7</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J451" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -30123,8 +31912,12 @@
       <c r="I452">
         <v>18</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J452" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -30146,8 +31939,12 @@
       <c r="I453">
         <v>23</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J453" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -30169,8 +31966,12 @@
       <c r="I454">
         <v>7</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J454" t="str">
+        <f t="shared" ref="J454:J501" si="9">IF(B454&lt;10, "C", "S")</f>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -30192,8 +31993,12 @@
       <c r="I455">
         <v>20</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J455" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="5">
         <v>455</v>
       </c>
@@ -30215,8 +32020,12 @@
       <c r="I456" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J456" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -30238,8 +32047,12 @@
       <c r="I457">
         <v>11</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J457" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -30261,8 +32074,12 @@
       <c r="I458">
         <v>10</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J458" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -30284,8 +32101,12 @@
       <c r="I459">
         <v>13</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J459" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -30307,8 +32128,12 @@
       <c r="I460">
         <v>24</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J460" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -30330,8 +32155,12 @@
       <c r="I461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J461" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -30353,8 +32182,12 @@
       <c r="I462">
         <v>1</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J462" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -30376,8 +32209,12 @@
       <c r="I463">
         <v>4</v>
       </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J463" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -30399,8 +32236,12 @@
       <c r="I464">
         <v>1</v>
       </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J464" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -30422,8 +32263,12 @@
       <c r="I465">
         <v>12</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J465" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -30445,8 +32290,12 @@
       <c r="I466">
         <v>12</v>
       </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J466" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -30468,8 +32317,12 @@
       <c r="I467">
         <v>8</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J467" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -30491,8 +32344,12 @@
       <c r="I468">
         <v>13</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J468" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -30514,8 +32371,12 @@
       <c r="I469">
         <v>18</v>
       </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J469" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -30537,8 +32398,12 @@
       <c r="I470">
         <v>15</v>
       </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J470" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -30560,8 +32425,12 @@
       <c r="I471">
         <v>10</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J471" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -30583,8 +32452,12 @@
       <c r="I472">
         <v>7</v>
       </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J472" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -30606,8 +32479,12 @@
       <c r="I473">
         <v>5</v>
       </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J473" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -30629,8 +32506,12 @@
       <c r="I474">
         <v>26</v>
       </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J474" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -30652,8 +32533,12 @@
       <c r="I475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J475" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -30675,8 +32560,12 @@
       <c r="I476">
         <v>2</v>
       </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J476" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -30698,8 +32587,12 @@
       <c r="I477">
         <v>6</v>
       </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J477" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -30721,8 +32614,12 @@
       <c r="I478">
         <v>5</v>
       </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J478" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -30744,8 +32641,12 @@
       <c r="I479">
         <v>6</v>
       </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J479" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -30767,8 +32668,12 @@
       <c r="I480">
         <v>7</v>
       </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J480" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -30790,8 +32695,12 @@
       <c r="I481">
         <v>2</v>
       </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J481" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -30813,8 +32722,12 @@
       <c r="I482">
         <v>7</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J482" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -30836,8 +32749,12 @@
       <c r="I483">
         <v>7</v>
       </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J483" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -30859,8 +32776,12 @@
       <c r="I484">
         <v>8</v>
       </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J484" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -30882,8 +32803,12 @@
       <c r="I485">
         <v>18</v>
       </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J485" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -30905,8 +32830,12 @@
       <c r="I486">
         <v>23</v>
       </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J486" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -30928,8 +32857,12 @@
       <c r="I487">
         <v>23</v>
       </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J487" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -30951,8 +32884,12 @@
       <c r="I488">
         <v>11</v>
       </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J488" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -30974,8 +32911,12 @@
       <c r="I489">
         <v>16</v>
       </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J489" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -30997,8 +32938,12 @@
       <c r="I490">
         <v>22</v>
       </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J490" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -31020,8 +32965,12 @@
       <c r="I491">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J491" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -31043,8 +32992,12 @@
       <c r="I492">
         <v>1</v>
       </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J492" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
@@ -31066,8 +33019,12 @@
       <c r="I493">
         <v>4</v>
       </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J493" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -31089,8 +33046,12 @@
       <c r="I494">
         <v>1</v>
       </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J494" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -31112,8 +33073,12 @@
       <c r="I495">
         <v>9</v>
       </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J495" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -31135,8 +33100,12 @@
       <c r="I496">
         <v>11</v>
       </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J496" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -31158,8 +33127,12 @@
       <c r="I497">
         <v>8</v>
       </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J497" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -31181,8 +33154,12 @@
       <c r="I498">
         <v>16</v>
       </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J498" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -31204,8 +33181,12 @@
       <c r="I499">
         <v>15</v>
       </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J499" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -31227,8 +33208,12 @@
       <c r="I500">
         <v>8</v>
       </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J500" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
@@ -31249,6 +33234,10 @@
       </c>
       <c r="I501">
         <v>14</v>
+      </c>
+      <c r="J501" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
       </c>
     </row>
   </sheetData>

--- a/matury/2019/zad5.xlsx
+++ b/matury/2019/zad5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\dev\other\informatyka-frycz\matury\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0766C244-2336-4F67-9339-296F2AC7CC47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86446368-6D93-481D-BE50-4105363C2CFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2325" windowWidth="20730" windowHeight="14910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
